--- a/_notebooks/files/wikipedia_radii.xlsx
+++ b/_notebooks/files/wikipedia_radii.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\blog\Draft posts\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mark\Documents\GitHub\blog\_notebooks\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>H</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>Metallic</t>
+  </si>
+  <si>
+    <t>Mighell</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H101" sqref="H101"/>
+      <selection activeCell="L96" sqref="L96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,7 +680,7 @@
     <col min="3" max="8" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>100</v>
       </c>
@@ -702,8 +705,11 @@
       <c r="H1" s="1" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -722,8 +728,11 @@
       <c r="F2" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -742,8 +751,11 @@
       <c r="F3" s="1">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -765,8 +777,11 @@
       <c r="H4" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -791,8 +806,11 @@
       <c r="H5" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -814,8 +832,11 @@
       <c r="G6" s="1">
         <v>73</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -837,8 +858,11 @@
       <c r="G7" s="1">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>13.94</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -860,8 +884,11 @@
       <c r="G8" s="1">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -883,8 +910,11 @@
       <c r="G9" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -906,8 +936,11 @@
       <c r="G10" s="1">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -926,8 +959,11 @@
       <c r="F11" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -949,8 +985,11 @@
       <c r="H12" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -975,8 +1014,11 @@
       <c r="H13" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1001,8 +1043,11 @@
       <c r="H14" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1024,8 +1069,11 @@
       <c r="G15" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1047,8 +1095,11 @@
       <c r="G16" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1070,8 +1121,11 @@
       <c r="G17" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1093,8 +1147,11 @@
       <c r="G18" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1116,8 +1173,11 @@
       <c r="G19" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1139,8 +1199,11 @@
       <c r="H20" s="1">
         <v>227</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1165,8 +1228,11 @@
       <c r="H21" s="1">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1191,8 +1257,11 @@
       <c r="H22" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1214,8 +1283,11 @@
       <c r="H23" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1237,8 +1309,11 @@
       <c r="H24" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1260,8 +1335,11 @@
       <c r="H25" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1283,8 +1361,11 @@
       <c r="H26" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26">
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1306,8 +1387,11 @@
       <c r="H27" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1329,8 +1413,11 @@
       <c r="H28" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1355,8 +1442,11 @@
       <c r="H29" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1381,8 +1471,11 @@
       <c r="H30" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1404,8 +1497,11 @@
       <c r="H31" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1430,8 +1526,11 @@
       <c r="H32" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1453,8 +1552,11 @@
       <c r="G33" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1476,8 +1578,11 @@
       <c r="G34" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1499,8 +1604,11 @@
       <c r="G35" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35">
+        <v>28.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1522,8 +1630,11 @@
       <c r="G36" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36">
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1542,8 +1653,11 @@
       <c r="G37" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1565,8 +1679,11 @@
       <c r="H38" s="1">
         <v>248</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1591,8 +1708,11 @@
       <c r="H39" s="1">
         <v>215</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1614,8 +1734,11 @@
       <c r="H40" s="1">
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1637,8 +1760,11 @@
       <c r="H41" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1660,8 +1786,11 @@
       <c r="H42" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42">
+        <v>35.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1683,8 +1812,11 @@
       <c r="H43" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1706,8 +1838,11 @@
       <c r="H44" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1729,8 +1864,11 @@
       <c r="H45" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1752,8 +1890,11 @@
       <c r="H46" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1778,8 +1919,11 @@
       <c r="H47" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1804,8 +1948,11 @@
       <c r="H48" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1827,8 +1974,11 @@
       <c r="H49" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1853,8 +2003,11 @@
       <c r="H50" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1876,8 +2029,11 @@
       <c r="G51" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1899,8 +2055,11 @@
       <c r="G52" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1922,8 +2081,11 @@
       <c r="G53" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1945,8 +2107,11 @@
       <c r="G54" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1965,8 +2130,11 @@
       <c r="G55" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1988,8 +2156,11 @@
       <c r="H56" s="1">
         <v>265</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2014,8 +2185,11 @@
       <c r="H57" s="1">
         <v>222</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2037,8 +2211,11 @@
       <c r="H58" s="1">
         <v>187</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2060,8 +2237,11 @@
       <c r="H59" s="1">
         <v>181.8</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2083,8 +2263,11 @@
       <c r="H60" s="1">
         <v>182.4</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2103,8 +2286,11 @@
       <c r="H61" s="1">
         <v>181.4</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2123,8 +2309,11 @@
       <c r="H62" s="1">
         <v>183.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2143,8 +2332,11 @@
       <c r="H63" s="1">
         <v>180.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2163,8 +2355,11 @@
       <c r="H64" s="1">
         <v>180.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2186,8 +2381,11 @@
       <c r="H65" s="1">
         <v>180.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2206,8 +2404,11 @@
       <c r="H66" s="1">
         <v>177.3</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2226,8 +2427,11 @@
       <c r="H67" s="1">
         <v>178.1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2246,8 +2450,11 @@
       <c r="H68" s="1">
         <v>176.2</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2266,8 +2473,11 @@
       <c r="H69" s="1">
         <v>176.1</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2286,8 +2496,11 @@
       <c r="H70" s="1">
         <v>175.9</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2306,8 +2519,11 @@
       <c r="H71" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2329,8 +2545,11 @@
       <c r="H72" s="1">
         <v>173.8</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2352,8 +2571,11 @@
       <c r="H73" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2375,8 +2597,11 @@
       <c r="H74" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2398,8 +2623,11 @@
       <c r="H75" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2421,8 +2649,11 @@
       <c r="H76" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2444,8 +2675,11 @@
       <c r="H77" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2467,8 +2701,11 @@
       <c r="H78" s="1">
         <v>135.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2493,8 +2730,11 @@
       <c r="H79" s="1">
         <v>138.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2519,8 +2759,11 @@
       <c r="H80" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2542,8 +2785,11 @@
       <c r="H81" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2568,8 +2814,11 @@
       <c r="H82" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2591,8 +2840,11 @@
       <c r="G83" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2614,8 +2866,11 @@
       <c r="G84" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2637,8 +2892,11 @@
       <c r="G85" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2657,8 +2915,11 @@
       <c r="G86" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2677,8 +2938,11 @@
       <c r="G87" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2688,8 +2952,11 @@
       <c r="E88" s="1">
         <v>348</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2708,8 +2975,11 @@
       <c r="G89" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2725,8 +2995,11 @@
       <c r="G90" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2745,8 +3018,11 @@
       <c r="H91" s="1">
         <v>179</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2765,8 +3041,11 @@
       <c r="H92" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2788,8 +3067,11 @@
       <c r="H93" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2808,8 +3090,11 @@
       <c r="H94" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2825,8 +3110,11 @@
       <c r="H95" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2842,8 +3130,11 @@
       <c r="H96" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2859,8 +3150,11 @@
       <c r="H97" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2870,8 +3164,11 @@
       <c r="H98" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2881,8 +3178,11 @@
       <c r="H99" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -2892,13 +3192,19 @@
       <c r="H100" s="1">
         <v>186</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>100</v>
       </c>
       <c r="B101" t="s">
         <v>99</v>
+      </c>
+      <c r="I101">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
